--- a/isitword test/wordorderth.xlsx
+++ b/isitword test/wordorderth.xlsx
@@ -463,11 +463,11 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>word/wordth0443.png</t>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -476,14 +476,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>word/wordth0231.png</t>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
@@ -495,11 +495,11 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>word/wordth0942.png</t>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -508,14 +508,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>word/wordth0511.png</t>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,11 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>word/wordth0632.png</t>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
@@ -540,14 +540,14 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word/wordth0241.png</t>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
@@ -556,14 +556,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>word/wordth0951.png</t>
+          <t>word/wordth0712.png</t>
         </is>
       </c>
     </row>
@@ -575,11 +575,11 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>word/wordth0073.png</t>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
@@ -588,14 +588,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>word/wordth0091.png</t>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -607,11 +607,11 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>word/wordth0272.png</t>
+          <t>word/wordth0282.png</t>
         </is>
       </c>
     </row>
@@ -623,11 +623,11 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>word/wordth0661.png</t>
+          <t>word/wordth0231.png</t>
         </is>
       </c>
     </row>
@@ -636,14 +636,14 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>word/wordth0483.png</t>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
@@ -652,14 +652,14 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>word/wordth0702.png</t>
+          <t>word/wordth0713.png</t>
         </is>
       </c>
     </row>
@@ -671,11 +671,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>word/wordth0681.png</t>
+          <t>word/wordth0011.png</t>
         </is>
       </c>
     </row>
@@ -684,14 +684,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>word/wordth0662.png</t>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -700,14 +700,14 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>word/wordth0111.png</t>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -716,14 +716,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>word/wordth0032.png</t>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
@@ -732,14 +732,14 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>word/wordth0523.png</t>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>word/wordth0521.png</t>
+          <t>word/wordth0461.png</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>word/wordth0312.png</t>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
@@ -796,14 +796,14 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>word/wordth0313.png</t>
+          <t>word/wordth0962.png</t>
         </is>
       </c>
     </row>
@@ -815,11 +815,11 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>word/wordth0881.png</t>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
@@ -828,14 +828,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>word/wordth0101.png</t>
+          <t>word/wordth0942.png</t>
         </is>
       </c>
     </row>
@@ -844,14 +844,14 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>word/wordth0012.png</t>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
@@ -860,14 +860,14 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>word/wordth0682.png</t>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
@@ -879,11 +879,11 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>word/wordth0281.png</t>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -892,14 +892,14 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>word/wordth0273.png</t>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>word/wordth0643.png</t>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
@@ -924,14 +924,14 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>word/wordth0303.png</t>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -943,11 +943,11 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>word/wordth0963.png</t>
+          <t>word/wordth0233.png</t>
         </is>
       </c>
     </row>
@@ -956,14 +956,14 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>word/wordth0512.png</t>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -972,14 +972,14 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>word/wordth0953.png</t>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -991,11 +991,11 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>word/wordth0823.png</t>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>word/wordth0271.png</t>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
@@ -1020,14 +1020,14 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>word/wordth0233.png</t>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
@@ -1036,14 +1036,14 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>word/wordth0711.png</t>
+          <t>word/wordth0012.png</t>
         </is>
       </c>
     </row>
@@ -1052,14 +1052,14 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>word/wordth0222.png</t>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1068,14 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>word/wordth0113.png</t>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -1084,14 +1084,14 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>word/wordth0883.png</t>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
@@ -1103,11 +1103,11 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>word/wordth0501.png</t>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>word/wordth0482.png</t>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
@@ -1132,14 +1132,14 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>word/wordth0242.png</t>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -1151,11 +1151,11 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>word/wordth0071.png</t>
+          <t>word/wordth0711.png</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1164,14 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>64</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>word/wordth0642.png</t>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
@@ -1180,14 +1180,14 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>word/wordth0633.png</t>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1196,14 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>word/wordth0282.png</t>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
@@ -1215,11 +1215,11 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>word/wordth0243.png</t>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
@@ -1228,14 +1228,14 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>word/wordth0031.png</t>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>word/wordth0703.png</t>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1260,14 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>word/wordth0013.png</t>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
@@ -1276,14 +1276,14 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>word/wordth0072.png</t>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
@@ -1295,11 +1295,11 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>word/wordth0871.png</t>
+          <t>word/wordth0961.png</t>
         </is>
       </c>
     </row>
@@ -1308,14 +1308,14 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>word/wordth0613.png</t>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
@@ -1324,14 +1324,14 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>word/wordth0753.png</t>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
@@ -1340,14 +1340,14 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>word/wordth0522.png</t>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
@@ -1356,14 +1356,14 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>word/wordth0311.png</t>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -1372,14 +1372,14 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>word/wordth0712.png</t>
+          <t>word/wordth0963.png</t>
         </is>
       </c>
     </row>
@@ -1388,14 +1388,14 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>word/wordth0611.png</t>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
@@ -1404,14 +1404,14 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>word/wordth0061.png</t>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -1423,11 +1423,11 @@
         <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>word/wordth0683.png</t>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
@@ -1436,14 +1436,14 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>word/wordth0751.png</t>
+          <t>word/wordth0462.png</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>word/wordth0083.png</t>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -1468,14 +1468,14 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>word/wordth0413.png</t>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>word/wordth0011.png</t>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
@@ -1500,14 +1500,14 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>word/wordth0713.png</t>
+          <t>word/wordth0301.png</t>
         </is>
       </c>
     </row>
@@ -1516,14 +1516,14 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>word/wordth0872.png</t>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
@@ -1532,14 +1532,14 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>word/wordth0232.png</t>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>word/wordth0873.png</t>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1564,14 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>word/wordth0422.png</t>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
@@ -1580,14 +1580,14 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>word/wordth0301.png</t>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
@@ -1596,14 +1596,14 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>word/wordth0442.png</t>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -1615,11 +1615,11 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>word/wordth0941.png</t>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>word/wordth0112.png</t>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -1644,14 +1644,14 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>word/wordth0822.png</t>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -1663,11 +1663,11 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>word/wordth0952.png</t>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -1676,14 +1676,14 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>word/wordth0641.png</t>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
@@ -1695,11 +1695,11 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>word/wordth0441.png</t>
+          <t>word/wordth0751.png</t>
         </is>
       </c>
     </row>
@@ -1708,14 +1708,14 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>word/wordth0263.png</t>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1724,14 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>word/wordth0461.png</t>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
@@ -1740,14 +1740,14 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>word/wordth0462.png</t>
+          <t>word/wordth0753.png</t>
         </is>
       </c>
     </row>
@@ -1756,14 +1756,14 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>word/wordth0412.png</t>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -1772,14 +1772,14 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>word/wordth0891.png</t>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>word/wordth0223.png</t>
+          <t>word/wordth0463.png</t>
         </is>
       </c>
     </row>
@@ -1804,14 +1804,14 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>word/wordth0221.png</t>
+          <t>word/wordth0013.png</t>
         </is>
       </c>
     </row>
@@ -1820,14 +1820,14 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>word/wordth0663.png</t>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -1836,14 +1836,14 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>word/wordth0103.png</t>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -1852,14 +1852,14 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>word/wordth0931.png</t>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1868,14 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>word/wordth0261.png</t>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
@@ -1884,14 +1884,14 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>word/wordth0701.png</t>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -1900,14 +1900,14 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>word/wordth0063.png</t>
+          <t>word/wordth0232.png</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>word/wordth0962.png</t>
+          <t>word/wordth0752.png</t>
         </is>
       </c>
     </row>
@@ -1935,11 +1935,11 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>word/wordth0932.png</t>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
@@ -1951,11 +1951,11 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>word/wordth0092.png</t>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -1964,14 +1964,14 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>word/wordth0033.png</t>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
@@ -1980,14 +1980,14 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>word/wordth0463.png</t>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
@@ -1996,14 +1996,14 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>word/wordth0933.png</t>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
@@ -2015,11 +2015,11 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>word/wordth0961.png</t>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
@@ -2028,14 +2028,14 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>word/wordth0062.png</t>
+          <t>word/wordth0093.png</t>
         </is>
       </c>
     </row>
@@ -2044,14 +2044,14 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>word/wordth0893.png</t>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
@@ -2060,14 +2060,14 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>word/wordth0631.png</t>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -2079,11 +2079,11 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>word/wordth0421.png</t>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -2092,14 +2092,14 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>word/wordth0503.png</t>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
@@ -2111,11 +2111,11 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>word/wordth0943.png</t>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>word/wordth0821.png</t>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
@@ -2140,14 +2140,14 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>word/wordth0481.png</t>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
@@ -2156,14 +2156,14 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>word/wordth0882.png</t>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2172,14 @@
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>word/wordth0892.png</t>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
@@ -2188,14 +2188,14 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>word/wordth0502.png</t>
+          <t>word/wordth0943.png</t>
         </is>
       </c>
     </row>
@@ -2204,14 +2204,14 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>word/wordth0093.png</t>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -2223,11 +2223,11 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>word/wordth0513.png</t>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
@@ -2236,14 +2236,14 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>word/wordth0081.png</t>
+          <t>word/wordth0092.png</t>
         </is>
       </c>
     </row>
@@ -2252,14 +2252,14 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>word/wordth0612.png</t>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
@@ -2271,11 +2271,11 @@
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>word/wordth0752.png</t>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -2284,14 +2284,14 @@
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>word/wordth0423.png</t>
+          <t>word/wordth0091.png</t>
         </is>
       </c>
     </row>
@@ -2300,14 +2300,14 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>word/wordth0302.png</t>
+          <t>word/wordth0941.png</t>
         </is>
       </c>
     </row>
@@ -2316,14 +2316,14 @@
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>word/wordth0102.png</t>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -2335,11 +2335,11 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>word/wordth0082.png</t>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
@@ -2367,11 +2367,11 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>word/wordth0283.png</t>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
